--- a/storage/templates/scholars.xlsx
+++ b/storage/templates/scholars.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\oxytoxin\Sites\scholarstracker\storage\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\oxytoxin\Sites\scholarstracker\storage\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99399CB-9E0D-40D4-A507-52A67C9FAE6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691468E6-F0EE-47F3-8AD8-36ADBF70D44D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Name</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>If yes, what is the status of the request? (Pending, Approved, Disapproved)</t>
+  </si>
+  <si>
+    <t>Campus</t>
   </si>
 </sst>
 </file>
@@ -108,7 +111,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -161,11 +164,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -180,6 +196,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -496,499 +515,504 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:Q418"/>
+  <dimension ref="B1:R418"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="10.375" customWidth="1"/>
-    <col min="5" max="5" width="46.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.75" customWidth="1"/>
-    <col min="9" max="9" width="15.75" customWidth="1"/>
-    <col min="10" max="10" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.25" customWidth="1"/>
-    <col min="12" max="12" width="19.125" customWidth="1"/>
-    <col min="13" max="13" width="24.25" customWidth="1"/>
-    <col min="14" max="14" width="31.375" customWidth="1"/>
-    <col min="15" max="15" width="33.875" customWidth="1"/>
-    <col min="16" max="16" width="21.375" customWidth="1"/>
-    <col min="17" max="17" width="25.75" customWidth="1"/>
+    <col min="3" max="3" width="20.5" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" customWidth="1"/>
+    <col min="6" max="6" width="46.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.75" customWidth="1"/>
+    <col min="10" max="10" width="15.75" customWidth="1"/>
+    <col min="11" max="11" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.25" customWidth="1"/>
+    <col min="13" max="13" width="19.08203125" customWidth="1"/>
+    <col min="14" max="14" width="24.25" customWidth="1"/>
+    <col min="15" max="15" width="31.33203125" customWidth="1"/>
+    <col min="16" max="16" width="33.83203125" customWidth="1"/>
+    <col min="17" max="17" width="21.33203125" customWidth="1"/>
+    <col min="18" max="18" width="25.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:17" s="5" customFormat="1" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:18" ht="72" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:18" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="2:18" s="5" customFormat="1" ht="47" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="R3" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:17" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:17" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:17" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="2:17" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="2:17" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="2:17" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="2:17" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="2:17" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="2:17" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="2:17" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="2:17" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="2:17" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="2:17" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="126" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="128" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="129" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="131" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="133" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="134" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="135" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="137" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="138" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="139" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="140" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="141" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="143" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="144" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="145" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="146" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="147" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="148" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="149" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="150" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="151" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="152" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="153" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="154" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="155" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="156" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="157" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="158" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="159" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="160" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="161" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="162" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="163" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="164" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="165" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="166" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="167" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="168" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="169" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="170" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="171" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="172" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="173" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="174" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="175" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="176" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="177" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="178" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="179" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="180" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="181" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="182" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="183" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="184" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="185" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="186" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="187" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="188" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="189" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="190" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="191" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="192" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="193" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="194" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="195" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="196" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="197" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="198" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="199" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="200" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="201" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="202" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="203" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="204" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="205" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="206" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="207" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="208" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="209" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="210" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="211" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="212" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="213" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="214" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="215" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="216" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="217" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="218" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="219" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="220" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="221" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="222" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="223" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="224" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="225" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="226" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="227" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="228" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="229" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="230" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="231" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="232" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="233" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="234" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="235" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="236" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="237" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="238" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="239" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="240" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="241" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="242" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="243" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="244" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="245" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="246" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="247" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="248" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="249" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="250" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="251" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="252" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="253" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="254" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="255" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="256" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="257" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="258" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="259" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="260" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="261" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="262" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="263" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="264" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="265" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="266" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="267" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="268" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="269" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="270" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="271" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="272" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="273" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="274" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="275" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="276" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="277" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="278" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="279" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="280" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="281" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="282" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="283" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="284" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="285" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="286" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="287" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="288" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="289" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="290" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="291" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="292" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="293" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="294" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="295" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="296" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="297" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="298" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="299" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="300" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="301" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="302" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="303" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="304" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="305" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="306" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="307" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="308" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="309" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="310" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="311" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="312" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="313" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="314" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="315" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="316" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="317" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="318" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="319" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="320" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="321" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="322" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="323" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="324" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="325" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="326" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="327" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="328" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="329" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="330" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="331" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="332" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="333" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="334" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="335" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="336" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="337" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="338" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="339" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="340" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="341" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="342" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="343" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="344" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="345" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="346" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="347" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="348" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="349" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="350" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="351" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="352" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="353" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="354" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="355" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="356" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="357" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="358" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="359" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="360" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="361" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="362" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="363" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="364" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="365" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="366" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="367" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="368" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="369" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="370" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="371" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="372" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="373" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="374" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="375" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="376" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="377" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="378" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="379" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="380" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="381" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="382" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="383" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="384" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="385" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="386" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="387" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="388" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="389" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="390" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="391" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="392" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="393" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="394" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="395" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="396" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="397" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="398" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="399" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="400" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="401" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="402" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="403" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="404" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="405" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="406" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="407" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="408" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="409" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="410" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="411" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="412" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="413" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="414" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="415" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="416" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="417" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="418" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="17" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="18" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="19" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="20" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="21" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="22" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="23" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="24" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="25" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="26" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="27" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="28" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="29" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="30" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="31" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="32" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="33" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="34" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="35" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="36" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="37" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="38" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="39" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="40" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="41" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="42" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="43" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="44" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="45" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="46" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="47" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="48" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="49" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="50" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="51" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="52" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="53" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="54" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="55" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="56" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="57" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="58" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="59" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="60" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="61" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="62" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="63" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="64" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="65" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="66" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="67" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="68" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="69" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="70" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="71" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="72" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="73" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="74" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="75" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="76" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="77" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="78" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="79" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="80" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="81" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="82" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="83" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="84" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="85" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="86" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="87" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="88" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="89" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="90" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="91" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="92" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="93" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="94" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="95" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="96" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="97" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="98" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="99" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="100" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="101" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="102" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="103" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="104" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="105" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="106" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="107" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="108" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="109" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="110" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="111" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="112" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="113" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="114" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="115" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="116" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="117" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="118" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="119" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="120" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="121" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="122" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="123" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="124" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="125" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="126" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="127" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="128" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="129" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="130" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="131" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="132" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="133" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="134" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="135" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="136" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="137" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="138" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="139" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="140" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="141" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="142" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="143" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="144" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="145" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="146" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="147" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="148" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="149" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="150" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="151" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="152" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="153" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="154" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="155" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="156" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="157" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="158" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="159" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="160" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="161" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="162" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="163" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="164" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="165" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="166" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="167" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="168" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="169" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="170" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="171" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="172" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="173" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="174" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="175" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="176" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="177" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="178" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="179" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="180" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="181" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="182" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="183" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="184" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="185" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="186" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="187" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="188" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="189" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="190" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="191" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="192" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="193" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="194" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="195" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="196" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="197" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="198" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="199" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="200" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="201" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="202" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="203" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="204" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="205" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="206" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="207" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="208" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="209" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="210" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="211" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="212" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="213" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="214" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="215" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="216" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="217" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="218" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="219" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="220" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="221" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="222" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="223" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="224" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="225" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="226" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="227" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="228" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="229" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="230" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="231" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="232" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="233" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="234" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="235" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="236" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="237" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="238" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="239" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="240" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="241" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="242" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="243" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="244" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="245" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="246" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="247" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="248" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="249" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="250" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="251" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="252" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="253" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="254" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="255" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="256" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="257" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="258" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="259" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="260" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="261" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="262" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="263" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="264" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="265" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="266" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="267" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="268" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="269" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="270" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="271" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="272" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="273" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="274" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="275" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="276" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="277" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="278" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="279" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="280" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="281" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="282" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="283" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="284" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="285" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="286" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="287" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="288" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="289" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="290" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="291" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="292" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="293" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="294" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="295" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="296" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="297" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="298" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="299" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="300" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="301" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="302" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="303" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="304" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="305" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="306" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="307" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="308" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="309" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="310" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="311" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="312" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="313" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="314" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="315" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="316" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="317" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="318" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="319" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="320" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="321" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="322" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="323" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="324" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="325" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="326" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="327" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="328" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="329" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="330" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="331" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="332" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="333" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="334" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="335" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="336" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="337" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="338" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="339" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="340" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="341" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="342" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="343" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="344" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="345" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="346" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="347" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="348" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="349" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="350" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="351" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="352" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="353" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="354" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="355" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="356" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="357" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="358" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="359" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="360" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="361" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="362" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="363" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="364" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="365" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="366" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="367" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="368" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="369" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="370" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="371" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="372" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="373" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="374" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="375" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="376" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="377" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="378" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="379" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="380" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="381" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="382" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="383" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="384" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="385" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="386" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="387" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="388" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="389" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="390" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="391" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="392" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="393" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="394" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="395" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="396" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="397" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="398" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="399" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="400" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="401" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="402" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="403" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="404" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="405" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="406" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="407" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="408" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="409" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="410" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="411" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="412" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="413" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="414" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="415" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="416" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="417" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="418" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
